--- a/4sem/лабы/предмет чм/lab4.xlxs.xlsx
+++ b/4sem/лабы/предмет чм/lab4.xlxs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\леха\Desktop\2 курс\4sem\лабы\предмет чм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C987D85E-4304-4733-8072-FC3F7E4E8B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A97D9-5B27-4D8A-B23B-3181CF958954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24686" windowHeight="14829" xr2:uid="{5199A980-E820-4C76-9F76-905374A8968D}"/>
+    <workbookView xWindow="2143" yWindow="300" windowWidth="18506" windowHeight="12009" xr2:uid="{5199A980-E820-4C76-9F76-905374A8968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ABBE42-1233-4D19-B7F4-79BC03E99773}">
   <dimension ref="B3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -499,7 +499,7 @@
         <v>0.73</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:K14" si="0">C6-C5</f>
+        <f>C6-C5</f>
         <v>0.251</v>
       </c>
       <c r="E6">
@@ -515,7 +515,7 @@
         <v>0.73</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:K14" si="0">C7-C6</f>
         <v>0</v>
       </c>
       <c r="E7">
@@ -539,7 +539,7 @@
         <v>-0.251</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>D8-D7</f>
         <v>-0.251</v>
       </c>
       <c r="F8">
@@ -567,7 +567,7 @@
         <v>-0.36909999999999998</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>E9-E8</f>
         <v>-0.11809999999999998</v>
       </c>
       <c r="G9">
